--- a/Code/Results/Cases/Case_4_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_56/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,8 +447,11 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -482,8 +488,11 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -520,8 +529,11 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -558,8 +570,11 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -596,8 +611,11 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -634,8 +652,11 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -672,8 +693,11 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -710,8 +734,11 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -748,8 +775,11 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -786,8 +816,11 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -824,8 +857,11 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -862,8 +898,11 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -900,8 +939,11 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -938,8 +980,11 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -976,8 +1021,11 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1014,8 +1062,11 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1052,8 +1103,11 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1090,8 +1144,11 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1128,8 +1185,11 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1166,8 +1226,11 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1204,8 +1267,11 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1242,8 +1308,11 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1280,8 +1349,11 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1316,6 +1388,9 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_56/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -450,8 +456,14 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -491,8 +503,14 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -532,8 +550,14 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -573,8 +597,14 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -614,8 +644,14 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -655,8 +691,14 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -696,8 +738,14 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -737,8 +785,14 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -778,8 +832,14 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -819,8 +879,14 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -860,8 +926,14 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -901,8 +973,14 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -942,8 +1020,14 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -983,8 +1067,14 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1024,8 +1114,14 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1065,8 +1161,14 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1106,8 +1208,14 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1147,8 +1255,14 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1188,8 +1302,14 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1229,8 +1349,14 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1270,8 +1396,14 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1311,8 +1443,14 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1352,8 +1490,14 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1391,6 +1535,12 @@
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_56/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3.119774067474282</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.4009049851578368</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.2015243431124674</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.03774065432918761</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007891178996679446</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3181841437338306</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.6557127231962276</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>2.861532480577608</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2.708863895228433</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.3588712937506955</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.174404323681614</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.03717024343824171</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007946947737830965</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2791601069022818</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.6970780273615276</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2.641281778503128</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2.458325599725981</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.3330680808291646</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.1579605276125164</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.03689260535322347</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007982263282643013</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2555390496492294</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.7237044914086539</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2.512688893795342</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2.356605680801692</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.3225495563020218</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.1513052176790524</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.0367968939139427</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.00079969315478919</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2459897543248672</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.7348536701604242</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>2.461831733629197</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2.33973603866508</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.3208026144626785</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.1502026806932122</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.03678203044063011</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007999384123273385</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2444084682448562</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.736722738677706</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>2.453476786077118</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>2.456952329918124</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.3329262447728354</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1578705953299675</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.03689124504706953</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007982459974081377</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2554099663218636</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.7238536566859715</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>2.511996917871897</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>2.977684868189272</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.3864075068127875</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.1921260593202589</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.03752839673692776</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007910189635586585</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3046525213205342</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.6697143286480873</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>2.78413392694722</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>4.016111708384983</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.4915753327077823</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.261275381411707</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.03939373465049201</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007776644710536961</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.4043535869635235</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.5737775931314673</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>3.376563556637649</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>4.794606328322573</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.5694019462565905</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.3137741272031747</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.04119930644621128</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007683004062863442</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.4801844529977473</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.5102571945350753</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>3.856826282495035</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>5.153383960023575</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.6050242957911678</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.3381455078776838</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.04212966000167206</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007641252434265412</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.51540631460702</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.4830507410617599</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>4.087338820250636</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>5.290023671469271</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.6185537475148237</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.3474556907026738</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.04249895427522787</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007625552636546238</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.5288633143149184</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.4730079094016197</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>4.176567066231087</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>5.260559350067922</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.6156380104324057</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.3454467773948267</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.04241864233565984</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007628929134249315</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.5259595537390283</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.4751589812366461</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>4.157260456906783</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>5.164609112485095</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.606136516930718</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.3389097674407111</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.04215969361753302</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007639958651640688</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.5165109501881773</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.4822192058568682</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>4.094639581549245</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>5.105941692166425</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.6003220630818475</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.3349165843553266</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.04200333361907127</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007646728614114498</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.5107394013543143</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.4865781360499888</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>4.056541374245</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>4.771261970122396</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.56707905643961</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.3121921569909034</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.04114080884107629</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007685748734182737</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.4778984685015928</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.5120705900998566</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>3.842021245839533</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>4.567210483392216</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.5467473892095995</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.2983842504115586</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.04064049497721101</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007709895452677107</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.4579477048455658</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.528153497163995</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>3.71364470028692</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>4.450274586109572</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.5350731651964793</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.290487667219864</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.04036290111015006</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007723864347834087</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.4465399227863287</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.5375618759433429</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>3.640925538923284</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>4.410752571101455</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.5311236630985547</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.2878214947151463</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.04027062157211958</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007728608093756549</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.4426885844914494</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.540774027775722</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>3.616490385487623</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>4.588886924937356</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.5489095991262047</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.2998493554104584</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.04069269214665283</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007707316755362278</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.4600644220594035</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.5264249840658017</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>3.727193287600755</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>5.192769953373102</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.6089261761131013</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.3408275482249792</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.04223528097849005</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007636716104915271</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.5192828725254088</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.4801382585100917</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>4.112978500903807</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>5.592039447126183</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.6483885357522468</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.3680886790849485</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.04334317570764235</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007591213540863522</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.558688534525146</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.4514096240187904</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>4.376519316046483</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>5.378481384181327</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.6273018645222521</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.3534911549370321</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.04274228120562817</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007615444544645351</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.5375873891446474</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.4665973936855892</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>4.234745086722285</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>4.579085842803408</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.5479320188050281</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.2991868521586554</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.0406690626220847</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007708482313789338</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.4591072616421883</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.5272059411758612</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>3.721064603334526</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>3.73284691598235</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.4630561427968871</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.2423090032562953</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.03881729270625911</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007811947108237806</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3769803575992512</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.598564399991421</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>3.209103199035468</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_56/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.119774067474282</v>
+        <v>1.488133834874986</v>
       </c>
       <c r="C2">
-        <v>0.4009049851578368</v>
+        <v>0.1765239401599672</v>
       </c>
       <c r="D2">
-        <v>0.2015243431124674</v>
+        <v>0.07839918899901477</v>
       </c>
       <c r="E2">
-        <v>0.03774065432918761</v>
+        <v>0.08445594587336203</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007891178996679446</v>
+        <v>0.00245194282754721</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3181841437338306</v>
+        <v>0.2255077587125527</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6557127231962276</v>
+        <v>1.290701089977663</v>
       </c>
       <c r="O2">
-        <v>2.861532480577608</v>
+        <v>3.788337587761248</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.708863895228433</v>
+        <v>1.37589924506841</v>
       </c>
       <c r="C3">
-        <v>0.3588712937506955</v>
+        <v>0.1629045123966932</v>
       </c>
       <c r="D3">
-        <v>0.174404323681614</v>
+        <v>0.07112518762161812</v>
       </c>
       <c r="E3">
-        <v>0.03717024343824171</v>
+        <v>0.08493388216744435</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007946947737830965</v>
+        <v>0.002455629854554183</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2791601069022818</v>
+        <v>0.2161932431911424</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6970780273615276</v>
+        <v>1.307412781539096</v>
       </c>
       <c r="O3">
-        <v>2.641281778503128</v>
+        <v>3.766121607483427</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.458325599725981</v>
+        <v>1.307474604376011</v>
       </c>
       <c r="C4">
-        <v>0.3330680808291646</v>
+        <v>0.1544753755962063</v>
       </c>
       <c r="D4">
-        <v>0.1579605276125164</v>
+        <v>0.0666962248324694</v>
       </c>
       <c r="E4">
-        <v>0.03689260535322347</v>
+        <v>0.08526774109059865</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0007982263282643013</v>
+        <v>0.002458014952020879</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2555390496492294</v>
+        <v>0.2105959632905297</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7237044914086539</v>
+        <v>1.318227827171004</v>
       </c>
       <c r="O4">
-        <v>2.512688893795342</v>
+        <v>3.755091546260275</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.356605680801692</v>
+        <v>1.279714465096617</v>
       </c>
       <c r="C5">
-        <v>0.3225495563020218</v>
+        <v>0.1510237399178465</v>
       </c>
       <c r="D5">
-        <v>0.1513052176790524</v>
+        <v>0.06490070281617477</v>
       </c>
       <c r="E5">
-        <v>0.0367968939139427</v>
+        <v>0.08541395105564398</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.00079969315478919</v>
+        <v>0.002459017483442678</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2459897543248672</v>
+        <v>0.208345673034799</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7348536701604242</v>
+        <v>1.32277427971901</v>
       </c>
       <c r="O5">
-        <v>2.461831733629197</v>
+        <v>3.751251652438214</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.33973603866508</v>
+        <v>1.275112394994949</v>
       </c>
       <c r="C6">
-        <v>0.3208026144626785</v>
+        <v>0.150449592890638</v>
       </c>
       <c r="D6">
-        <v>0.1502026806932122</v>
+        <v>0.0646031185740128</v>
       </c>
       <c r="E6">
-        <v>0.03678203044063011</v>
+        <v>0.08543884272922142</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0007999384123273385</v>
+        <v>0.002459185803196877</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2444084682448562</v>
+        <v>0.2079738651207634</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.736722738677706</v>
+        <v>1.323537621994479</v>
       </c>
       <c r="O6">
-        <v>2.453476786077118</v>
+        <v>3.750653553803517</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.456952329918124</v>
+        <v>1.307099720512952</v>
       </c>
       <c r="C7">
-        <v>0.3329262447728354</v>
+        <v>0.1544288931000608</v>
       </c>
       <c r="D7">
-        <v>0.1578705953299675</v>
+        <v>0.06667197215655563</v>
       </c>
       <c r="E7">
-        <v>0.03689124504706953</v>
+        <v>0.08526967179299305</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0007982459974081377</v>
+        <v>0.00245802834861709</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2554099663218636</v>
+        <v>0.2105654909977943</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7238536566859715</v>
+        <v>1.318288578568747</v>
       </c>
       <c r="O7">
-        <v>2.511996917871897</v>
+        <v>3.75503711028756</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.977684868189272</v>
+        <v>1.449334525085931</v>
       </c>
       <c r="C8">
-        <v>0.3864075068127875</v>
+        <v>0.1718418669757398</v>
       </c>
       <c r="D8">
-        <v>0.1921260593202589</v>
+        <v>0.07588333017788784</v>
       </c>
       <c r="E8">
-        <v>0.03752839673692776</v>
+        <v>0.084612352223008</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007910189635586585</v>
+        <v>0.002453189007329903</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3046525213205342</v>
+        <v>0.2222708167620624</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6697143286480873</v>
+        <v>1.296348254683618</v>
       </c>
       <c r="O8">
-        <v>2.78413392694722</v>
+        <v>3.780134743749699</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.016111708384983</v>
+        <v>1.732108531273127</v>
       </c>
       <c r="C9">
-        <v>0.4915753327077823</v>
+        <v>0.2054565318307766</v>
       </c>
       <c r="D9">
-        <v>0.261275381411707</v>
+        <v>0.09424660527554352</v>
       </c>
       <c r="E9">
-        <v>0.03939373465049201</v>
+        <v>0.08364399278820045</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007776644710536961</v>
+        <v>0.002444656733291866</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4043535869635235</v>
+        <v>0.2461933583381892</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5737775931314673</v>
+        <v>1.257721939652658</v>
       </c>
       <c r="O9">
-        <v>3.376563556637649</v>
+        <v>3.850142493542023</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.794606328322573</v>
+        <v>1.942208428356707</v>
       </c>
       <c r="C10">
-        <v>0.5694019462565905</v>
+        <v>0.2298278126456808</v>
       </c>
       <c r="D10">
-        <v>0.3137741272031747</v>
+        <v>0.107927588734583</v>
       </c>
       <c r="E10">
-        <v>0.04119930644621128</v>
+        <v>0.08312815101600179</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007683004062863442</v>
+        <v>0.002438965738766132</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4801844529977473</v>
+        <v>0.2643638204206269</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5102571945350753</v>
+        <v>1.232027947307095</v>
       </c>
       <c r="O10">
-        <v>3.856826282495035</v>
+        <v>3.914371157556616</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.153383960023575</v>
+        <v>2.038298754259756</v>
       </c>
       <c r="C11">
-        <v>0.6050242957911678</v>
+        <v>0.2408442158368018</v>
       </c>
       <c r="D11">
-        <v>0.3381455078776838</v>
+        <v>0.1141940907086934</v>
       </c>
       <c r="E11">
-        <v>0.04212966000167206</v>
+        <v>0.08293599352249181</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007641252434265412</v>
+        <v>0.002436500884019999</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.51540631460702</v>
+        <v>0.2727601866236569</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.4830507410617599</v>
+        <v>1.220922831936786</v>
       </c>
       <c r="O11">
-        <v>4.087338820250636</v>
+        <v>3.94639506101106</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.290023671469271</v>
+        <v>2.074759279861155</v>
       </c>
       <c r="C12">
-        <v>0.6185537475148237</v>
+        <v>0.2450056864387307</v>
       </c>
       <c r="D12">
-        <v>0.3474556907026738</v>
+        <v>0.1165733207345596</v>
       </c>
       <c r="E12">
-        <v>0.04249895427522787</v>
+        <v>0.0828693426711844</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007625552636546238</v>
+        <v>0.002435585240315685</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5288633143149184</v>
+        <v>0.2759584817303562</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4730079094016197</v>
+        <v>1.216801585175414</v>
       </c>
       <c r="O12">
-        <v>4.176567066231087</v>
+        <v>3.958927104605721</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.260559350067922</v>
+        <v>2.066903610579345</v>
       </c>
       <c r="C13">
-        <v>0.6156380104324057</v>
+        <v>0.2441098947005571</v>
       </c>
       <c r="D13">
-        <v>0.3454467773948267</v>
+        <v>0.1160606323398099</v>
       </c>
       <c r="E13">
-        <v>0.04241864233565984</v>
+        <v>0.0828834251028745</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007628929134249315</v>
+        <v>0.002435781652786693</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5259595537390283</v>
+        <v>0.2752688366414731</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.4751589812366461</v>
+        <v>1.217685430096257</v>
       </c>
       <c r="O13">
-        <v>4.157260456906783</v>
+        <v>3.95621005091607</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.164609112485095</v>
+        <v>2.041296921218304</v>
       </c>
       <c r="C14">
-        <v>0.606136516930718</v>
+        <v>0.241186787595268</v>
       </c>
       <c r="D14">
-        <v>0.3389097674407111</v>
+        <v>0.1143897059295682</v>
       </c>
       <c r="E14">
-        <v>0.04215969361753302</v>
+        <v>0.08293038754324122</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007639958651640688</v>
+        <v>0.002436425198309904</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5165109501881773</v>
+        <v>0.27302293601808</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.4822192058568682</v>
+        <v>1.220582089706461</v>
       </c>
       <c r="O14">
-        <v>4.094639581549245</v>
+        <v>3.947417946935843</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.105941692166425</v>
+        <v>2.025621593627363</v>
       </c>
       <c r="C15">
-        <v>0.6003220630818475</v>
+        <v>0.2393949683501546</v>
       </c>
       <c r="D15">
-        <v>0.3349165843553266</v>
+        <v>0.1133670300435341</v>
       </c>
       <c r="E15">
-        <v>0.04200333361907127</v>
+        <v>0.08295994985125965</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007646728614114498</v>
+        <v>0.002436821696552015</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5107394013543143</v>
+        <v>0.2716497020019233</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.4865781360499888</v>
+        <v>1.222367323846207</v>
       </c>
       <c r="O15">
-        <v>4.056541374245</v>
+        <v>3.942085362996124</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.771261970122396</v>
+        <v>1.935938988316877</v>
       </c>
       <c r="C16">
-        <v>0.56707905643961</v>
+        <v>0.2291064428584946</v>
       </c>
       <c r="D16">
-        <v>0.3121921569909034</v>
+        <v>0.1075189279910944</v>
       </c>
       <c r="E16">
-        <v>0.04114080884107629</v>
+        <v>0.08314156448400389</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007685748734182737</v>
+        <v>0.002439129310624848</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4778984685015928</v>
+        <v>0.2638177250258167</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5120705900998566</v>
+        <v>1.232765441472196</v>
       </c>
       <c r="O16">
-        <v>3.842021245839533</v>
+        <v>3.912334936276636</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.567210483392216</v>
+        <v>1.881052883170014</v>
       </c>
       <c r="C17">
-        <v>0.5467473892095995</v>
+        <v>0.2227767067506647</v>
       </c>
       <c r="D17">
-        <v>0.2983842504115586</v>
+        <v>0.1039423545577449</v>
       </c>
       <c r="E17">
-        <v>0.04064049497721101</v>
+        <v>0.08326386719283896</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007709895452677107</v>
+        <v>0.002440576655031254</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4579477048455658</v>
+        <v>0.2590464951281888</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.528153497163995</v>
+        <v>1.239293832141549</v>
       </c>
       <c r="O17">
-        <v>3.71364470028692</v>
+        <v>3.894803959534727</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.450274586109572</v>
+        <v>1.849532354130986</v>
       </c>
       <c r="C18">
-        <v>0.5350731651964793</v>
+        <v>0.2191294072664505</v>
       </c>
       <c r="D18">
-        <v>0.290487667219864</v>
+        <v>0.1018892432614251</v>
       </c>
       <c r="E18">
-        <v>0.04036290111015006</v>
+        <v>0.0833382127139366</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007723864347834087</v>
+        <v>0.002441420806591104</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4465399227863287</v>
+        <v>0.2563144959283932</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5375618759433429</v>
+        <v>1.243103674709193</v>
       </c>
       <c r="O18">
-        <v>3.640925538923284</v>
+        <v>3.8849846079857</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.410752571101455</v>
+        <v>1.83886840107948</v>
       </c>
       <c r="C19">
-        <v>0.5311236630985547</v>
+        <v>0.2178933635373994</v>
       </c>
       <c r="D19">
-        <v>0.2878214947151463</v>
+        <v>0.1011947868008889</v>
       </c>
       <c r="E19">
-        <v>0.04027062157211958</v>
+        <v>0.08336407177393035</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007728608093756549</v>
+        <v>0.002441708630041346</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4426885844914494</v>
+        <v>0.2553915979980701</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.540774027775722</v>
+        <v>1.24440304387527</v>
       </c>
       <c r="O19">
-        <v>3.616490385487623</v>
+        <v>3.881705232542799</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.588886924937356</v>
+        <v>1.886890588495248</v>
       </c>
       <c r="C20">
-        <v>0.5489095991262047</v>
+        <v>0.2234512020868635</v>
       </c>
       <c r="D20">
-        <v>0.2998493554104584</v>
+        <v>0.1043226684004139</v>
       </c>
       <c r="E20">
-        <v>0.04069269214665283</v>
+        <v>0.08325043382718533</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007707316755362278</v>
+        <v>0.002440421374558749</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4600644220594035</v>
+        <v>0.2595531291185154</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5264249840658017</v>
+        <v>1.238593192319435</v>
       </c>
       <c r="O20">
-        <v>3.727193287600755</v>
+        <v>3.896642825689071</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.192769953373102</v>
+        <v>2.048816246389265</v>
       </c>
       <c r="C21">
-        <v>0.6089261761131013</v>
+        <v>0.2420456527297858</v>
       </c>
       <c r="D21">
-        <v>0.3408275482249792</v>
+        <v>0.1148803276025632</v>
       </c>
       <c r="E21">
-        <v>0.04223528097849005</v>
+        <v>0.08291642754887896</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007636716104915271</v>
+        <v>0.002436235692771067</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5192828725254088</v>
+        <v>0.273682101937311</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.4801382585100917</v>
+        <v>1.219728989040465</v>
       </c>
       <c r="O21">
-        <v>4.112978500903807</v>
+        <v>3.949989387306971</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.592039447126183</v>
+        <v>2.155070340114833</v>
       </c>
       <c r="C22">
-        <v>0.6483885357522468</v>
+        <v>0.2541386866430173</v>
       </c>
       <c r="D22">
-        <v>0.3680886790849485</v>
+        <v>0.1218167800271459</v>
       </c>
       <c r="E22">
-        <v>0.04334317570764235</v>
+        <v>0.0827337797872616</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007591213540863522</v>
+        <v>0.002433603488303742</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.558688534525146</v>
+        <v>0.2830256305401377</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4514096240187904</v>
+        <v>1.207889946892493</v>
       </c>
       <c r="O22">
-        <v>4.376519316046483</v>
+        <v>3.987217607361458</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.378481384181327</v>
+        <v>2.098321793416517</v>
       </c>
       <c r="C23">
-        <v>0.6273018645222521</v>
+        <v>0.2476898870200159</v>
       </c>
       <c r="D23">
-        <v>0.3534911549370321</v>
+        <v>0.1181113116305568</v>
       </c>
       <c r="E23">
-        <v>0.04274228120562817</v>
+        <v>0.08282799971327393</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007615444544645351</v>
+        <v>0.002434998915012945</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5375873891446474</v>
+        <v>0.2780287995440744</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.4665973936855892</v>
+        <v>1.214163796782895</v>
       </c>
       <c r="O23">
-        <v>4.234745086722285</v>
+        <v>3.967131381702188</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.579085842803408</v>
+        <v>1.884251255250661</v>
       </c>
       <c r="C24">
-        <v>0.5479320188050281</v>
+        <v>0.2231462884388691</v>
       </c>
       <c r="D24">
-        <v>0.2991868521586554</v>
+        <v>0.1041507188379427</v>
       </c>
       <c r="E24">
-        <v>0.0406690626220847</v>
+        <v>0.08325649449277783</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007708482313789338</v>
+        <v>0.0024404915392942</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4591072616421883</v>
+        <v>0.2593240454923631</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5272059411758612</v>
+        <v>1.238909775328743</v>
       </c>
       <c r="O24">
-        <v>3.721064603334526</v>
+        <v>3.895810666268062</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.73284691598235</v>
+        <v>1.655198578221757</v>
       </c>
       <c r="C25">
-        <v>0.4630561427968871</v>
+        <v>0.1964199503549366</v>
       </c>
       <c r="D25">
-        <v>0.2423090032562953</v>
+        <v>0.08924606170805305</v>
       </c>
       <c r="E25">
-        <v>0.03881729270625911</v>
+        <v>0.08387161863626069</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007811947108237806</v>
+        <v>0.002446863053302665</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3769803575992512</v>
+        <v>0.239617569831637</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.598564399991421</v>
+        <v>1.267700166927771</v>
       </c>
       <c r="O25">
-        <v>3.209103199035468</v>
+        <v>3.828965420608853</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_56/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.488133834874986</v>
+        <v>3.119774067473998</v>
       </c>
       <c r="C2">
-        <v>0.1765239401599672</v>
+        <v>0.4009049851581779</v>
       </c>
       <c r="D2">
-        <v>0.07839918899901477</v>
+        <v>0.2015243431127516</v>
       </c>
       <c r="E2">
-        <v>0.08445594587336203</v>
+        <v>0.03774065432917517</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.00245194282754721</v>
+        <v>0.0007891178996031477</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2255077587125527</v>
+        <v>0.3181841437338591</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.290701089977663</v>
+        <v>0.6557127231962241</v>
       </c>
       <c r="O2">
-        <v>3.788337587761248</v>
+        <v>2.861532480577665</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.37589924506841</v>
+        <v>2.70886389522866</v>
       </c>
       <c r="C3">
-        <v>0.1629045123966932</v>
+        <v>0.3588712937505534</v>
       </c>
       <c r="D3">
-        <v>0.07112518762161812</v>
+        <v>0.1744043236814576</v>
       </c>
       <c r="E3">
-        <v>0.08493388216744435</v>
+        <v>0.03717024343824349</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002455629854554183</v>
+        <v>0.0007946947737211946</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2161932431911424</v>
+        <v>0.2791601069024381</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.307412781539096</v>
+        <v>0.697078027361524</v>
       </c>
       <c r="O3">
-        <v>3.766121607483427</v>
+        <v>2.641281778503128</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.307474604376011</v>
+        <v>2.458325599726095</v>
       </c>
       <c r="C4">
-        <v>0.1544753755962063</v>
+        <v>0.3330680808295057</v>
       </c>
       <c r="D4">
-        <v>0.0666962248324694</v>
+        <v>0.1579605276124454</v>
       </c>
       <c r="E4">
-        <v>0.08526774109059865</v>
+        <v>0.03689260535320926</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002458014952020879</v>
+        <v>0.0007982263282922416</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2105959632905297</v>
+        <v>0.2555390496493146</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.318227827171004</v>
+        <v>0.7237044914087036</v>
       </c>
       <c r="O4">
-        <v>3.755091546260275</v>
+        <v>2.512688893795286</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.279714465096617</v>
+        <v>2.356605680801579</v>
       </c>
       <c r="C5">
-        <v>0.1510237399178465</v>
+        <v>0.3225495563019365</v>
       </c>
       <c r="D5">
-        <v>0.06490070281617477</v>
+        <v>0.1513052176791945</v>
       </c>
       <c r="E5">
-        <v>0.08541395105564398</v>
+        <v>0.03679689391392849</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002459017483442678</v>
+        <v>0.0007996931547888199</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.208345673034799</v>
+        <v>0.2459897543249099</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.32277427971901</v>
+        <v>0.7348536701604331</v>
       </c>
       <c r="O5">
-        <v>3.751251652438214</v>
+        <v>2.461831733629225</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.275112394994949</v>
+        <v>2.339736038665194</v>
       </c>
       <c r="C6">
-        <v>0.150449592890638</v>
+        <v>0.3208026144630622</v>
       </c>
       <c r="D6">
-        <v>0.0646031185740128</v>
+        <v>0.1502026806932832</v>
       </c>
       <c r="E6">
-        <v>0.08543884272922142</v>
+        <v>0.03678203044064254</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002459185803196877</v>
+        <v>0.0007999384123272142</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2079738651207634</v>
+        <v>0.244408468244913</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.323537621994479</v>
+        <v>0.7367227386777113</v>
       </c>
       <c r="O6">
-        <v>3.750653553803517</v>
+        <v>2.45347678607709</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.307099720512952</v>
+        <v>2.456952329918124</v>
       </c>
       <c r="C7">
-        <v>0.1544288931000608</v>
+        <v>0.3329262447729349</v>
       </c>
       <c r="D7">
-        <v>0.06667197215655563</v>
+        <v>0.1578705953300101</v>
       </c>
       <c r="E7">
-        <v>0.08526967179299305</v>
+        <v>0.03689124504708374</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.00245802834861709</v>
+        <v>0.000798245997406893</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2105654909977943</v>
+        <v>0.2554099663219347</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.318288578568747</v>
+        <v>0.7238536566859644</v>
       </c>
       <c r="O7">
-        <v>3.75503711028756</v>
+        <v>2.511996917871812</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.449334525085931</v>
+        <v>2.977684868189215</v>
       </c>
       <c r="C8">
-        <v>0.1718418669757398</v>
+        <v>0.3864075068127022</v>
       </c>
       <c r="D8">
-        <v>0.07588333017788784</v>
+        <v>0.1921260593204295</v>
       </c>
       <c r="E8">
-        <v>0.084612352223008</v>
+        <v>0.03752839673692598</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002453189007329903</v>
+        <v>0.0007910189636159778</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2222708167620624</v>
+        <v>0.30465252132052</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.296348254683618</v>
+        <v>0.6697143286481442</v>
       </c>
       <c r="O8">
-        <v>3.780134743749699</v>
+        <v>2.784133926947277</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.732108531273127</v>
+        <v>4.016111708384756</v>
       </c>
       <c r="C9">
-        <v>0.2054565318307766</v>
+        <v>0.491575332707896</v>
       </c>
       <c r="D9">
-        <v>0.09424660527554352</v>
+        <v>0.2612753814115933</v>
       </c>
       <c r="E9">
-        <v>0.08364399278820045</v>
+        <v>0.03939373465052576</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002444656733291866</v>
+        <v>0.000777664471154147</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2461933583381892</v>
+        <v>0.4043535869635093</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.257721939652658</v>
+        <v>0.5737775931314708</v>
       </c>
       <c r="O9">
-        <v>3.850142493542023</v>
+        <v>3.376563556637649</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.942208428356707</v>
+        <v>4.794606328322573</v>
       </c>
       <c r="C10">
-        <v>0.2298278126456808</v>
+        <v>0.5694019462568747</v>
       </c>
       <c r="D10">
-        <v>0.107927588734583</v>
+        <v>0.3137741272032883</v>
       </c>
       <c r="E10">
-        <v>0.08312815101600179</v>
+        <v>0.0411993064462095</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002438965738766132</v>
+        <v>0.0007683004062858579</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2643638204206269</v>
+        <v>0.4801844529978325</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.232027947307095</v>
+        <v>0.5102571945351393</v>
       </c>
       <c r="O10">
-        <v>3.914371157556616</v>
+        <v>3.856826282495035</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.038298754259756</v>
+        <v>5.153383960023746</v>
       </c>
       <c r="C11">
-        <v>0.2408442158368018</v>
+        <v>0.6050242957912815</v>
       </c>
       <c r="D11">
-        <v>0.1141940907086934</v>
+        <v>0.3381455078779965</v>
       </c>
       <c r="E11">
-        <v>0.08293599352249181</v>
+        <v>0.04212966000164897</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002436500884019999</v>
+        <v>0.0007641252433867581</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2727601866236569</v>
+        <v>0.515406314606949</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.220922831936786</v>
+        <v>0.4830507410617457</v>
       </c>
       <c r="O11">
-        <v>3.94639506101106</v>
+        <v>4.087338820250636</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.074759279861155</v>
+        <v>5.290023671469442</v>
       </c>
       <c r="C12">
-        <v>0.2450056864387307</v>
+        <v>0.6185537475145111</v>
       </c>
       <c r="D12">
-        <v>0.1165733207345596</v>
+        <v>0.3474556907025885</v>
       </c>
       <c r="E12">
-        <v>0.0828693426711844</v>
+        <v>0.04249895427523853</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002435585240315685</v>
+        <v>0.0007625552636532968</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2759584817303562</v>
+        <v>0.52886331431489</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.216801585175414</v>
+        <v>0.4730079094016091</v>
       </c>
       <c r="O12">
-        <v>3.958927104605721</v>
+        <v>4.176567066231144</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.066903610579345</v>
+        <v>5.260559350067922</v>
       </c>
       <c r="C13">
-        <v>0.2441098947005571</v>
+        <v>0.61563801043269</v>
       </c>
       <c r="D13">
-        <v>0.1160606323398099</v>
+        <v>0.3454467773947556</v>
       </c>
       <c r="E13">
-        <v>0.0828834251028745</v>
+        <v>0.04241864233568116</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002435781652786693</v>
+        <v>0.0007628929133970215</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2752688366414731</v>
+        <v>0.5259595537390425</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.217685430096257</v>
+        <v>0.4751589812367172</v>
       </c>
       <c r="O13">
-        <v>3.95621005091607</v>
+        <v>4.15726045690684</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.041296921218304</v>
+        <v>5.164609112485095</v>
       </c>
       <c r="C14">
-        <v>0.241186787595268</v>
+        <v>0.6061365169307464</v>
       </c>
       <c r="D14">
-        <v>0.1143897059295682</v>
+        <v>0.3389097674406969</v>
       </c>
       <c r="E14">
-        <v>0.08293038754324122</v>
+        <v>0.04215969361754546</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002436425198309904</v>
+        <v>0.0007639958650953071</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.27302293601808</v>
+        <v>0.5165109501881489</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.220582089706461</v>
+        <v>0.4822192058569215</v>
       </c>
       <c r="O14">
-        <v>3.947417946935843</v>
+        <v>4.094639581549245</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.025621593627363</v>
+        <v>5.105941692166368</v>
       </c>
       <c r="C15">
-        <v>0.2393949683501546</v>
+        <v>0.6003220630821602</v>
       </c>
       <c r="D15">
-        <v>0.1133670300435341</v>
+        <v>0.3349165843556108</v>
       </c>
       <c r="E15">
-        <v>0.08295994985125965</v>
+        <v>0.04200333361907127</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002436821696552015</v>
+        <v>0.0007646728614113387</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2716497020019233</v>
+        <v>0.5107394013542859</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.222367323846207</v>
+        <v>0.4865781360499888</v>
       </c>
       <c r="O15">
-        <v>3.942085362996124</v>
+        <v>4.056541374245</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.935938988316877</v>
+        <v>4.771261970122396</v>
       </c>
       <c r="C16">
-        <v>0.2291064428584946</v>
+        <v>0.5670790564399795</v>
       </c>
       <c r="D16">
-        <v>0.1075189279910944</v>
+        <v>0.3121921569911308</v>
       </c>
       <c r="E16">
-        <v>0.08314156448400389</v>
+        <v>0.04114080884103544</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002439129310624848</v>
+        <v>0.0007685748734452824</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2638177250258167</v>
+        <v>0.4778984685016496</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.232765441472196</v>
+        <v>0.512070590099853</v>
       </c>
       <c r="O16">
-        <v>3.912334936276636</v>
+        <v>3.842021245839533</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.881052883170014</v>
+        <v>4.567210483392046</v>
       </c>
       <c r="C17">
-        <v>0.2227767067506647</v>
+        <v>0.5467473892097416</v>
       </c>
       <c r="D17">
-        <v>0.1039423545577449</v>
+        <v>0.2983842504116723</v>
       </c>
       <c r="E17">
-        <v>0.08326386719283896</v>
+        <v>0.04064049497720568</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002440576655031254</v>
+        <v>0.0007709895452666434</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2590464951281888</v>
+        <v>0.4579477048456653</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.239293832141549</v>
+        <v>0.5281534971639843</v>
       </c>
       <c r="O17">
-        <v>3.894803959534727</v>
+        <v>3.71364470028692</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.849532354130986</v>
+        <v>4.450274586109742</v>
       </c>
       <c r="C18">
-        <v>0.2191294072664505</v>
+        <v>0.5350731651967635</v>
       </c>
       <c r="D18">
-        <v>0.1018892432614251</v>
+        <v>0.2904876672196508</v>
       </c>
       <c r="E18">
-        <v>0.0833382127139366</v>
+        <v>0.04036290111014651</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002441420806591104</v>
+        <v>0.000772386434781774</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2563144959283932</v>
+        <v>0.4465399227863713</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.243103674709193</v>
+        <v>0.5375618759434033</v>
       </c>
       <c r="O18">
-        <v>3.8849846079857</v>
+        <v>3.640925538923284</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.83886840107948</v>
+        <v>4.410752571101511</v>
       </c>
       <c r="C19">
-        <v>0.2178933635373994</v>
+        <v>0.5311236630985832</v>
       </c>
       <c r="D19">
-        <v>0.1011947868008889</v>
+        <v>0.2878214947151321</v>
       </c>
       <c r="E19">
-        <v>0.08336407177393035</v>
+        <v>0.04027062157213201</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002441708630041346</v>
+        <v>0.0007728608094223685</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2553915979980701</v>
+        <v>0.4426885844913784</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.24440304387527</v>
+        <v>0.5407740277757114</v>
       </c>
       <c r="O19">
-        <v>3.881705232542799</v>
+        <v>3.616490385487566</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.886890588495248</v>
+        <v>4.588886924937299</v>
       </c>
       <c r="C20">
-        <v>0.2234512020868635</v>
+        <v>0.5489095991262047</v>
       </c>
       <c r="D20">
-        <v>0.1043226684004139</v>
+        <v>0.2998493554105437</v>
       </c>
       <c r="E20">
-        <v>0.08325043382718533</v>
+        <v>0.04069269214665283</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002440421374558749</v>
+        <v>0.0007707316756035813</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2595531291185154</v>
+        <v>0.4600644220592613</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.238593192319435</v>
+        <v>0.5264249840658124</v>
       </c>
       <c r="O20">
-        <v>3.896642825689071</v>
+        <v>3.727193287600699</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.048816246389265</v>
+        <v>5.192769953373102</v>
       </c>
       <c r="C21">
-        <v>0.2420456527297858</v>
+        <v>0.608926176113215</v>
       </c>
       <c r="D21">
-        <v>0.1148803276025632</v>
+        <v>0.3408275482249223</v>
       </c>
       <c r="E21">
-        <v>0.08291642754887896</v>
+        <v>0.04223528097849538</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002436235692771067</v>
+        <v>0.0007636716105322305</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.273682101937311</v>
+        <v>0.5192828725254088</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.219728989040465</v>
+        <v>0.4801382585101557</v>
       </c>
       <c r="O21">
-        <v>3.949989387306971</v>
+        <v>4.112978500903751</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.155070340114833</v>
+        <v>5.59203944712624</v>
       </c>
       <c r="C22">
-        <v>0.2541386866430173</v>
+        <v>0.6483885357524173</v>
       </c>
       <c r="D22">
-        <v>0.1218167800271459</v>
+        <v>0.3680886790850622</v>
       </c>
       <c r="E22">
-        <v>0.0827337797872616</v>
+        <v>0.04334317570764412</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002433603488303742</v>
+        <v>0.0007591213541279154</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2830256305401377</v>
+        <v>0.5586885345250749</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.207889946892493</v>
+        <v>0.4514096240188508</v>
       </c>
       <c r="O22">
-        <v>3.987217607361458</v>
+        <v>4.376519316046426</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.098321793416517</v>
+        <v>5.378481384181327</v>
       </c>
       <c r="C23">
-        <v>0.2476898870200159</v>
+        <v>0.6273018645221669</v>
       </c>
       <c r="D23">
-        <v>0.1181113116305568</v>
+        <v>0.3534911549370463</v>
       </c>
       <c r="E23">
-        <v>0.08282799971327393</v>
+        <v>0.04274228120561574</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002434998915012945</v>
+        <v>0.0007615444544234711</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2780287995440744</v>
+        <v>0.5375873891445622</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.214163796782895</v>
+        <v>0.4665973936855679</v>
       </c>
       <c r="O23">
-        <v>3.967131381702188</v>
+        <v>4.234745086722285</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.884251255250661</v>
+        <v>4.579085842803408</v>
       </c>
       <c r="C24">
-        <v>0.2231462884388691</v>
+        <v>0.5479320188049996</v>
       </c>
       <c r="D24">
-        <v>0.1041507188379427</v>
+        <v>0.2991868521586838</v>
       </c>
       <c r="E24">
-        <v>0.08325649449277783</v>
+        <v>0.04066906262208114</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0024404915392942</v>
+        <v>0.000770848231434945</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2593240454923631</v>
+        <v>0.4591072616421172</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.238909775328743</v>
+        <v>0.5272059411758434</v>
       </c>
       <c r="O24">
-        <v>3.895810666268062</v>
+        <v>3.721064603334526</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.655198578221757</v>
+        <v>3.732846915982236</v>
       </c>
       <c r="C25">
-        <v>0.1964199503549366</v>
+        <v>0.4630561427966597</v>
       </c>
       <c r="D25">
-        <v>0.08924606170805305</v>
+        <v>0.2423090032561817</v>
       </c>
       <c r="E25">
-        <v>0.08387161863626069</v>
+        <v>0.03881729270627687</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002446863053302665</v>
+        <v>0.000781194710816942</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.239617569831637</v>
+        <v>0.3769803575992512</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.267700166927771</v>
+        <v>0.5985643999913677</v>
       </c>
       <c r="O25">
-        <v>3.828965420608853</v>
+        <v>3.209103199035468</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_56/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.119774067473998</v>
+        <v>2.356799362401148</v>
       </c>
       <c r="C2">
-        <v>0.4009049851581779</v>
+        <v>0.9385987372914144</v>
       </c>
       <c r="D2">
-        <v>0.2015243431127516</v>
+        <v>0.2004261691248388</v>
       </c>
       <c r="E2">
-        <v>0.03774065432917517</v>
+        <v>0.235863188938275</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007891178996031477</v>
+        <v>1.568048767931685</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.001074973864276574</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.002505807354482581</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.9120824705984489</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.7780086134323199</v>
       </c>
       <c r="L2">
-        <v>0.3181841437338591</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6557127231962241</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>2.861532480577665</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.9947323384336357</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.70886389522866</v>
+        <v>2.049587286994154</v>
       </c>
       <c r="C3">
-        <v>0.3588712937505534</v>
+        <v>0.8152201309894735</v>
       </c>
       <c r="D3">
-        <v>0.1744043236814576</v>
+        <v>0.1735245688411311</v>
       </c>
       <c r="E3">
-        <v>0.03717024343824349</v>
+        <v>0.2056723049071536</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007946947737211946</v>
+        <v>1.402988819337992</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0002171889138202765</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.001006423473508544</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.8387106128791117</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.7219546861949837</v>
       </c>
       <c r="L3">
-        <v>0.2791601069024381</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.697078027361524</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>2.641281778503128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.8645465813626387</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.458325599726095</v>
+        <v>1.861198729209917</v>
       </c>
       <c r="C4">
-        <v>0.3330680808295057</v>
+        <v>0.7403151235544669</v>
       </c>
       <c r="D4">
-        <v>0.1579605276124454</v>
+        <v>0.1572046156518212</v>
       </c>
       <c r="E4">
-        <v>0.03689260535320926</v>
+        <v>0.1872767741856514</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0007982263282922416</v>
+        <v>1.302328273903754</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.099967592788076E-05</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0005451298907250823</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.7940802775426619</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6876747304720396</v>
       </c>
       <c r="L4">
-        <v>0.2555390496493146</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7237044914087036</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>2.512688893795286</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.7849156237399981</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.356605680801579</v>
+        <v>1.78433790762017</v>
       </c>
       <c r="C5">
-        <v>0.3225495563019365</v>
+        <v>0.7109297955641978</v>
       </c>
       <c r="D5">
-        <v>0.1513052176791945</v>
+        <v>0.1505957409019487</v>
       </c>
       <c r="E5">
-        <v>0.03679689391392849</v>
+        <v>0.1797380367991508</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0007996931547888199</v>
+        <v>1.258607917737265</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.084914411781824E-06</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0005276606456172672</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.7745400742789457</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6719541819807304</v>
       </c>
       <c r="L5">
-        <v>0.2459897543249099</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7348536701604331</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>2.461831733629225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.7526718272652886</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.339736038665194</v>
+        <v>1.771426792417174</v>
       </c>
       <c r="C6">
-        <v>0.3208026144630622</v>
+        <v>0.7072286516430779</v>
       </c>
       <c r="D6">
-        <v>0.1502026806932832</v>
+        <v>0.1494986157853475</v>
       </c>
       <c r="E6">
-        <v>0.03678203044064254</v>
+        <v>0.178402293966009</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0007999384123272142</v>
+        <v>1.247890700607314</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>5.120870814501188E-06</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.0006161786228311428</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.7695392632638516</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.667180700334292</v>
       </c>
       <c r="L6">
-        <v>0.244408468244913</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7367227386777113</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>2.45347678607709</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.7475002089100542</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.456952329918124</v>
+        <v>1.859748070071191</v>
       </c>
       <c r="C7">
-        <v>0.3329262447729349</v>
+        <v>0.7431145440009175</v>
       </c>
       <c r="D7">
-        <v>0.1578705953300101</v>
+        <v>0.1571090569492952</v>
       </c>
       <c r="E7">
-        <v>0.03689124504708374</v>
+        <v>0.1869402429325291</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.000798245997406893</v>
+        <v>1.292249340145077</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.01769633791271E-05</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0007590407991662218</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.7889974529850008</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6815379481948227</v>
       </c>
       <c r="L7">
-        <v>0.2554099663219347</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7238536566859644</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>2.511996917871812</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.7849709066435295</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.977684868189215</v>
+        <v>2.250230359692978</v>
       </c>
       <c r="C8">
-        <v>0.3864075068127022</v>
+        <v>0.90013008200998</v>
       </c>
       <c r="D8">
-        <v>0.1921260593204295</v>
+        <v>0.1910956320103452</v>
       </c>
       <c r="E8">
-        <v>0.03752839673692598</v>
+        <v>0.2251007404060488</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007910189636159778</v>
+        <v>1.498319712864145</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0007050311812073495</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.00213010460432983</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.8802776188346684</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.7507618827951035</v>
       </c>
       <c r="L8">
-        <v>0.30465252132052</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6697143286481442</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>2.784133926947277</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.9504230318601472</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.016111708384756</v>
+        <v>3.02013916422942</v>
       </c>
       <c r="C9">
-        <v>0.491575332707896</v>
+        <v>1.21033605310987</v>
       </c>
       <c r="D9">
-        <v>0.2612753814115933</v>
+        <v>0.2596339177010663</v>
       </c>
       <c r="E9">
-        <v>0.03939373465052576</v>
+        <v>0.3018928199113589</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.000777664471154147</v>
+        <v>1.926902095022314</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.004886183423190027</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.008587220824435526</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.072164089107673</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.8989480579422278</v>
       </c>
       <c r="L9">
-        <v>0.4043535869635093</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5737775931314708</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>3.376563556637649</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>1.277199998044495</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.794606328322573</v>
+        <v>3.60824180636132</v>
       </c>
       <c r="C10">
-        <v>0.5694019462568747</v>
+        <v>1.445504921861925</v>
       </c>
       <c r="D10">
-        <v>0.3137741272032883</v>
+        <v>0.3115112368865454</v>
       </c>
       <c r="E10">
-        <v>0.0411993064462095</v>
+        <v>0.3340884135311839</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007683004062858579</v>
+        <v>2.194279421413</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.009818912741688557</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.01634072266071218</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.18951952488203</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.9800855456996374</v>
       </c>
       <c r="L10">
-        <v>0.4801844529978325</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5102571945351393</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>3.856826282495035</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.481665779522402</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.153383960023746</v>
+        <v>4.042432229551139</v>
       </c>
       <c r="C11">
-        <v>0.6050242957912815</v>
+        <v>1.548693372008245</v>
       </c>
       <c r="D11">
-        <v>0.3381455078779965</v>
+        <v>0.3348437297314604</v>
       </c>
       <c r="E11">
-        <v>0.04212966000164897</v>
+        <v>0.174235430794667</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007641252433867581</v>
+        <v>1.885736369708525</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02765755295404304</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.01931677257420539</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.026778513079194</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.7889955121157541</v>
       </c>
       <c r="L11">
-        <v>0.515406314606949</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.4830507410617457</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>4.087338820250636</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.251765477172427</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.290023671469442</v>
+        <v>4.29455163062039</v>
       </c>
       <c r="C12">
-        <v>0.6185537475145111</v>
+        <v>1.58095123483065</v>
       </c>
       <c r="D12">
-        <v>0.3474556907025885</v>
+        <v>0.3434974080485489</v>
       </c>
       <c r="E12">
-        <v>0.04249895427523853</v>
+        <v>0.09777105710545619</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007625552636532968</v>
+        <v>1.604640258915936</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06528673859581602</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01982416485784011</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.8820214852051151</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.6364522419357925</v>
       </c>
       <c r="L12">
-        <v>0.52886331431489</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4730079094016091</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>4.176567066231144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1.033306098517976</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.260559350067922</v>
+        <v>4.41748437662676</v>
       </c>
       <c r="C13">
-        <v>0.61563801043269</v>
+        <v>1.565168526047273</v>
       </c>
       <c r="D13">
-        <v>0.3454467773947556</v>
+        <v>0.3411466295684846</v>
       </c>
       <c r="E13">
-        <v>0.04241864233568116</v>
+        <v>0.07970926587805138</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007628929133970215</v>
+        <v>1.314239366208682</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1196675354035648</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.0186297563747484</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.7354253509631121</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.4955687286359591</v>
       </c>
       <c r="L13">
-        <v>0.5259595537390425</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.4751589812367172</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>4.15726045690684</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.8136097502901549</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.164609112485095</v>
+        <v>4.444878370079607</v>
       </c>
       <c r="C14">
-        <v>0.6061365169307464</v>
+        <v>1.53364728904279</v>
       </c>
       <c r="D14">
-        <v>0.3389097674406969</v>
+        <v>0.33453860449427</v>
       </c>
       <c r="E14">
-        <v>0.04215969361754546</v>
+        <v>0.1016086367605205</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007639958650953071</v>
+        <v>1.109283863748402</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1679987619276346</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01716610834018795</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.6330832486740405</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.4039493791057964</v>
       </c>
       <c r="L14">
-        <v>0.5165109501881489</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.4822192058569215</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>4.094639581549245</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.6636736978215652</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.105941692166368</v>
+        <v>4.422210090956753</v>
       </c>
       <c r="C15">
-        <v>0.6003220630821602</v>
+        <v>1.517083144079095</v>
       </c>
       <c r="D15">
-        <v>0.3349165843556108</v>
+        <v>0.3305855713071963</v>
       </c>
       <c r="E15">
-        <v>0.04200333361907127</v>
+        <v>0.110864614562292</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007646728614113387</v>
+        <v>1.052590141772015</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1801195280925327</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.01654243409733969</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.6053958656583802</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.3808100557229182</v>
       </c>
       <c r="L15">
-        <v>0.5107394013542859</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.4865781360499888</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>4.056541374245</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.6249554745736603</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.771261970122396</v>
+        <v>4.13687790808217</v>
       </c>
       <c r="C16">
-        <v>0.5670790564399795</v>
+        <v>1.420456970786972</v>
       </c>
       <c r="D16">
-        <v>0.3121921569911308</v>
+        <v>0.3083531776090211</v>
       </c>
       <c r="E16">
-        <v>0.04114080884103544</v>
+        <v>0.1019487198530769</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007685748734452824</v>
+        <v>0.9986344862609116</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1657431097890765</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01329403935555096</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.5851787274047382</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.3747000670963061</v>
       </c>
       <c r="L16">
-        <v>0.4778984685016496</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.512070590099853</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>3.842021245839533</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.5902272379512397</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.567210483392046</v>
+        <v>3.904493641903912</v>
       </c>
       <c r="C17">
-        <v>0.5467473892097416</v>
+        <v>1.363475872146807</v>
       </c>
       <c r="D17">
-        <v>0.2983842504116723</v>
+        <v>0.2949230121072901</v>
       </c>
       <c r="E17">
-        <v>0.04064049497720568</v>
+        <v>0.07768921408421114</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007709895452666434</v>
+        <v>1.062703604414409</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1272336768803513</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01167531725721016</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.6224905018335249</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.4164526036742799</v>
       </c>
       <c r="L17">
-        <v>0.4579477048456653</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5281534971639843</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>3.71364470028692</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.6400273372911371</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.450274586109742</v>
+        <v>3.694391360769657</v>
       </c>
       <c r="C18">
-        <v>0.5350731651967635</v>
+        <v>1.33099286833459</v>
       </c>
       <c r="D18">
-        <v>0.2904876672196508</v>
+        <v>0.2874058784742033</v>
       </c>
       <c r="E18">
-        <v>0.04036290111014651</v>
+        <v>0.06825649976133819</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.000772386434781774</v>
+        <v>1.252433362809427</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07447812721861169</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.01090351603651651</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.7217600504772292</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.5158273048891289</v>
       </c>
       <c r="L18">
-        <v>0.4465399227863713</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5375618759434033</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>3.640925538923284</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.7782061107125315</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.410752571101511</v>
+        <v>3.520610408330072</v>
       </c>
       <c r="C19">
-        <v>0.5311236630985832</v>
+        <v>1.327310055470832</v>
       </c>
       <c r="D19">
-        <v>0.2878214947151321</v>
+        <v>0.2851418696191388</v>
       </c>
       <c r="E19">
-        <v>0.04027062157213201</v>
+        <v>0.1176036377559448</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007728608094223685</v>
+        <v>1.534145577319492</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03025035334872683</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.01135314337595883</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.8654249100927416</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.6600254610021068</v>
       </c>
       <c r="L19">
-        <v>0.4426885844913784</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5407740277757114</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>3.616490385487566</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.995367867192634</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.588886924937299</v>
+        <v>3.452634348907338</v>
       </c>
       <c r="C20">
-        <v>0.5489095991262047</v>
+        <v>1.393435561244019</v>
       </c>
       <c r="D20">
-        <v>0.2998493554105437</v>
+        <v>0.2977217469514102</v>
       </c>
       <c r="E20">
-        <v>0.04069269214665283</v>
+        <v>0.3236515722376296</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007707316756035813</v>
+        <v>2.091436427172027</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.008313500014951014</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.01463219955412942</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1.142237703712738</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.9389655720774073</v>
       </c>
       <c r="L20">
-        <v>0.4600644220592613</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5264249840658124</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>3.727193287600699</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.427716271963661</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.192769953373102</v>
+        <v>3.877933339707567</v>
       </c>
       <c r="C21">
-        <v>0.608926176113215</v>
+        <v>1.576577224916093</v>
       </c>
       <c r="D21">
-        <v>0.3408275482249223</v>
+        <v>0.3383135049938062</v>
       </c>
       <c r="E21">
-        <v>0.04223528097849538</v>
+        <v>0.3888116199245744</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007636716105322305</v>
+        <v>2.383259934254141</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.01328147563797466</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.02189862132810649</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1.275844071635873</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.047495999418757</v>
       </c>
       <c r="L21">
-        <v>0.5192828725254088</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.4801382585101557</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>4.112978500903751</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.645923866042949</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.59203944712624</v>
+        <v>4.167478517683207</v>
       </c>
       <c r="C22">
-        <v>0.6483885357524173</v>
+        <v>1.693308843668262</v>
       </c>
       <c r="D22">
-        <v>0.3680886790850622</v>
+        <v>0.3652749835650866</v>
       </c>
       <c r="E22">
-        <v>0.04334317570764412</v>
+        <v>0.419189782902464</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007591213541279154</v>
+        <v>2.563702838290851</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.01693850983496281</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.02713580393530091</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.358017042925468</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.113449030410933</v>
       </c>
       <c r="L22">
-        <v>0.5586885345250749</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4514096240188508</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>4.376519316046426</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.769071580825823</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.378481384181327</v>
+        <v>4.013378209726397</v>
       </c>
       <c r="C23">
-        <v>0.6273018645221669</v>
+        <v>1.626908866982603</v>
       </c>
       <c r="D23">
-        <v>0.3534911549370463</v>
+        <v>0.3508551988907556</v>
       </c>
       <c r="E23">
-        <v>0.04274228120561574</v>
+        <v>0.4032364304150846</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007615444544234711</v>
+        <v>2.478655419233235</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.01495121002729993</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.0240584940369164</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.319827193785841</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.08527885608693</v>
       </c>
       <c r="L23">
-        <v>0.5375873891445622</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.4665973936855679</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>4.234745086722285</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.702660682551823</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.579085842803408</v>
+        <v>3.432102437253093</v>
       </c>
       <c r="C24">
-        <v>0.5479320188049996</v>
+        <v>1.385499330018774</v>
       </c>
       <c r="D24">
-        <v>0.2991868521586838</v>
+        <v>0.2971471929379277</v>
       </c>
       <c r="E24">
-        <v>0.04066906262208114</v>
+        <v>0.343335834510853</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.000770848231434945</v>
+        <v>2.143544887430352</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.008458332447756289</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.01429833405809333</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1.168642317664336</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.9691068595311023</v>
       </c>
       <c r="L24">
-        <v>0.4591072616421172</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5272059411758434</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>3.721064603334526</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.454081022658414</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.732846915982236</v>
+        <v>2.810437244292473</v>
       </c>
       <c r="C25">
-        <v>0.4630561427966597</v>
+        <v>1.131250921839182</v>
       </c>
       <c r="D25">
-        <v>0.2423090032561817</v>
+        <v>0.240828837721196</v>
       </c>
       <c r="E25">
-        <v>0.03881729270627687</v>
+        <v>0.280446617162923</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.000781194710816942</v>
+        <v>1.792481246251526</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.003402258183331508</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.006668543979876596</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1.010877640289465</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.8477608431564079</v>
       </c>
       <c r="L25">
-        <v>0.3769803575992512</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5985643999913677</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>3.209103199035468</v>
+        <v>1.189229555909321</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_56/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.356799362401148</v>
+        <v>2.345664538982305</v>
       </c>
       <c r="C2">
-        <v>0.9385987372914144</v>
+        <v>1.062239410798668</v>
       </c>
       <c r="D2">
-        <v>0.2004261691248388</v>
+        <v>0.2001938583478022</v>
       </c>
       <c r="E2">
-        <v>0.235863188938275</v>
+        <v>0.2267434110677087</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.568048767931685</v>
+        <v>1.181945690380871</v>
       </c>
       <c r="H2">
-        <v>0.001074973864276574</v>
+        <v>0.0009831828376301033</v>
       </c>
       <c r="I2">
-        <v>0.002505807354482581</v>
+        <v>0.002519911082097259</v>
       </c>
       <c r="J2">
-        <v>0.9120824705984489</v>
+        <v>0.779149218987385</v>
       </c>
       <c r="K2">
-        <v>0.7780086134323199</v>
+        <v>0.5548128500197578</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2696131210474277</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1599364857643479</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9947323384336357</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>1.015354709494616</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.049587286994154</v>
+        <v>2.043554541432229</v>
       </c>
       <c r="C3">
-        <v>0.8152201309894735</v>
+        <v>0.9177764729192575</v>
       </c>
       <c r="D3">
-        <v>0.1735245688411311</v>
+        <v>0.1734661728020512</v>
       </c>
       <c r="E3">
-        <v>0.2056723049071536</v>
+        <v>0.1992290150991849</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.402988819337992</v>
+        <v>1.072655323268989</v>
       </c>
       <c r="H3">
-        <v>0.0002171889138202765</v>
+        <v>0.0002129838451581101</v>
       </c>
       <c r="I3">
-        <v>0.001006423473508544</v>
+        <v>0.001214597267151341</v>
       </c>
       <c r="J3">
-        <v>0.8387106128791117</v>
+        <v>0.728507317254909</v>
       </c>
       <c r="K3">
-        <v>0.7219546861949837</v>
+        <v>0.5296839628771295</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2679074789092795</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1430835369478878</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.8645465813626387</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.8823581829564873</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.861198729209917</v>
+        <v>1.857965893412711</v>
       </c>
       <c r="C4">
-        <v>0.7403151235544669</v>
+        <v>0.8300550219035756</v>
       </c>
       <c r="D4">
-        <v>0.1572046156518212</v>
+        <v>0.1572305104946423</v>
       </c>
       <c r="E4">
-        <v>0.1872767741856514</v>
+        <v>0.182398396905004</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.302328273903754</v>
+        <v>1.005999963564875</v>
       </c>
       <c r="H4">
-        <v>1.099967592788076E-05</v>
+        <v>1.580323521510607E-05</v>
       </c>
       <c r="I4">
-        <v>0.0005451298907250823</v>
+        <v>0.0007502344022500829</v>
       </c>
       <c r="J4">
-        <v>0.7940802775426619</v>
+        <v>0.6972339999152268</v>
       </c>
       <c r="K4">
-        <v>0.6876747304720396</v>
+        <v>0.5141726725477014</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2665715864772338</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1335072284843477</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.7849156237399981</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.8009477249880277</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.78433790762017</v>
+        <v>1.782186157634726</v>
       </c>
       <c r="C5">
-        <v>0.7109297955641978</v>
+        <v>0.7954290523697409</v>
       </c>
       <c r="D5">
-        <v>0.1505957409019487</v>
+        <v>0.1506514668370045</v>
       </c>
       <c r="E5">
-        <v>0.1797380367991508</v>
+        <v>0.1754906343205676</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.258607917737265</v>
+        <v>0.9767578420885599</v>
       </c>
       <c r="H5">
-        <v>2.084914411781824E-06</v>
+        <v>2.041255036111522E-07</v>
       </c>
       <c r="I5">
-        <v>0.0005276606456172672</v>
+        <v>0.0007156694123251484</v>
       </c>
       <c r="J5">
-        <v>0.7745400742789457</v>
+        <v>0.6833026355431144</v>
       </c>
       <c r="K5">
-        <v>0.6719541819807304</v>
+        <v>0.5065509931360381</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2653985717929928</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1293912293360329</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.7526718272652886</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.7679502512890153</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.771426792417174</v>
+        <v>1.769467864630343</v>
       </c>
       <c r="C6">
-        <v>0.7072286516430779</v>
+        <v>0.7907963009096477</v>
       </c>
       <c r="D6">
-        <v>0.1494986157853475</v>
+        <v>0.1495594027519331</v>
       </c>
       <c r="E6">
-        <v>0.178402293966009</v>
+        <v>0.1742717641326443</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.247890700607314</v>
+        <v>0.9692652670372865</v>
       </c>
       <c r="H6">
-        <v>5.120870814501188E-06</v>
+        <v>1.467396810728161E-06</v>
       </c>
       <c r="I6">
-        <v>0.0006161786228311428</v>
+        <v>0.0008162985161410674</v>
       </c>
       <c r="J6">
-        <v>0.7695392632638516</v>
+        <v>0.6795987646442967</v>
       </c>
       <c r="K6">
-        <v>0.667180700334292</v>
+        <v>0.5037306811258517</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2645225517224432</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1282281341007518</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.7475002089100542</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.7626315054353867</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.859748070071191</v>
+        <v>1.856611030240202</v>
       </c>
       <c r="C7">
-        <v>0.7431145440009175</v>
+        <v>0.8311902940641005</v>
       </c>
       <c r="D7">
-        <v>0.1571090569492952</v>
+        <v>0.1571325218938711</v>
       </c>
       <c r="E7">
-        <v>0.1869402429325291</v>
+        <v>0.1821248681941938</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.292249340145077</v>
+        <v>1.001322724453004</v>
       </c>
       <c r="H7">
-        <v>1.01769633791271E-05</v>
+        <v>1.462398830032186E-05</v>
       </c>
       <c r="I7">
-        <v>0.0007590407991662218</v>
+        <v>0.001005448780604823</v>
       </c>
       <c r="J7">
-        <v>0.7889974529850008</v>
+        <v>0.6833288092845606</v>
       </c>
       <c r="K7">
-        <v>0.6815379481948227</v>
+        <v>0.5078576548556129</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2638904164574285</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1314440952504299</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.7849709066435295</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.8007173988789447</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.250230359692978</v>
+        <v>2.241097833687263</v>
       </c>
       <c r="C8">
-        <v>0.90013008200998</v>
+        <v>1.011459592016962</v>
       </c>
       <c r="D8">
-        <v>0.1910956320103452</v>
+        <v>0.1909151416783743</v>
       </c>
       <c r="E8">
-        <v>0.2251007404060488</v>
+        <v>0.2170360477984872</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.498319712864145</v>
+        <v>1.144476335918526</v>
       </c>
       <c r="H8">
-        <v>0.0007050311812073495</v>
+        <v>0.000647871748802098</v>
       </c>
       <c r="I8">
-        <v>0.00213010460432983</v>
+        <v>0.002279307042834411</v>
       </c>
       <c r="J8">
-        <v>0.8802776188346684</v>
+        <v>0.7240186295847195</v>
       </c>
       <c r="K8">
-        <v>0.7507618827951035</v>
+        <v>0.5341202001118077</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2641856624052963</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1497992509177379</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.9504230318601472</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.9692749125990119</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.02013916422942</v>
+        <v>2.995910277652058</v>
       </c>
       <c r="C9">
-        <v>1.21033605310987</v>
+        <v>1.373657733957202</v>
       </c>
       <c r="D9">
-        <v>0.2596339177010663</v>
+        <v>0.2588430808256987</v>
       </c>
       <c r="E9">
-        <v>0.3018928199113589</v>
+        <v>0.2865795670700351</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.926902095022314</v>
+        <v>1.432506825615491</v>
       </c>
       <c r="H9">
-        <v>0.004886183423190027</v>
+        <v>0.004303030078772641</v>
       </c>
       <c r="I9">
-        <v>0.008587220824435526</v>
+        <v>0.007374147759026783</v>
       </c>
       <c r="J9">
-        <v>1.072164089107673</v>
+        <v>0.8449237558083666</v>
       </c>
       <c r="K9">
-        <v>0.8989480579422278</v>
+        <v>0.5999751692926907</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2685925410909462</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.197141313528391</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.277199998044495</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.302482114290939</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.60824180636132</v>
+        <v>3.570928990600578</v>
       </c>
       <c r="C10">
-        <v>1.445504921861925</v>
+        <v>1.635395362255281</v>
       </c>
       <c r="D10">
-        <v>0.3115112368865454</v>
+        <v>0.3100505888885863</v>
       </c>
       <c r="E10">
-        <v>0.3340884135311839</v>
+        <v>0.3138185291030169</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.194279421413</v>
+        <v>1.628924912483228</v>
       </c>
       <c r="H10">
-        <v>0.009818912741688557</v>
+        <v>0.008539990931412333</v>
       </c>
       <c r="I10">
-        <v>0.01634072266071218</v>
+        <v>0.01327081290223742</v>
       </c>
       <c r="J10">
-        <v>1.18951952488203</v>
+        <v>0.8588048681368434</v>
       </c>
       <c r="K10">
-        <v>0.9800855456996374</v>
+        <v>0.6194145202144483</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2600756757861618</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.2246024090376437</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.481665779522402</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.509005794939199</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.042432229551139</v>
+        <v>4.003023200982227</v>
       </c>
       <c r="C11">
-        <v>1.548693372008245</v>
+        <v>1.706615947996397</v>
       </c>
       <c r="D11">
-        <v>0.3348437297314604</v>
+        <v>0.333109530550999</v>
       </c>
       <c r="E11">
-        <v>0.174235430794667</v>
+        <v>0.1584088160049717</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.885736369708525</v>
+        <v>1.445030879305335</v>
       </c>
       <c r="H11">
-        <v>0.02765755295404304</v>
+        <v>0.02630397513491545</v>
       </c>
       <c r="I11">
-        <v>0.01931677257420539</v>
+        <v>0.01566385145300764</v>
       </c>
       <c r="J11">
-        <v>1.026778513079194</v>
+        <v>0.64130693703855</v>
       </c>
       <c r="K11">
-        <v>0.7889955121157541</v>
+        <v>0.4752464666647285</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.202909867032524</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1755418377457261</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.251765477172427</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.271698374194656</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.29455163062039</v>
+        <v>4.256102785372718</v>
       </c>
       <c r="C12">
-        <v>1.58095123483065</v>
+        <v>1.711160772401399</v>
       </c>
       <c r="D12">
-        <v>0.3434974080485489</v>
+        <v>0.3417026979169151</v>
       </c>
       <c r="E12">
-        <v>0.09777105710545619</v>
+        <v>0.08554893654921969</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.604640258915936</v>
+        <v>1.259441633047032</v>
       </c>
       <c r="H12">
-        <v>0.06528673859581602</v>
+        <v>0.06400687899281365</v>
       </c>
       <c r="I12">
-        <v>0.01982416485784011</v>
+        <v>0.01605329990469162</v>
       </c>
       <c r="J12">
-        <v>0.8820214852051151</v>
+        <v>0.5104875653374421</v>
       </c>
       <c r="K12">
-        <v>0.6364522419357925</v>
+        <v>0.3752827490198669</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1664550724123366</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1376425686019687</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.033306098517976</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.048151272602865</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.41748437662676</v>
+        <v>4.382506708474466</v>
       </c>
       <c r="C13">
-        <v>1.565168526047273</v>
+        <v>1.673292289186122</v>
       </c>
       <c r="D13">
-        <v>0.3411466295684846</v>
+        <v>0.3394813973456081</v>
       </c>
       <c r="E13">
-        <v>0.07970926587805138</v>
+        <v>0.07090443263426582</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.314239366208682</v>
+        <v>1.04607832147164</v>
       </c>
       <c r="H13">
-        <v>0.1196675354035648</v>
+        <v>0.118580687949418</v>
       </c>
       <c r="I13">
-        <v>0.0186297563747484</v>
+        <v>0.0152337767086328</v>
       </c>
       <c r="J13">
-        <v>0.7354253509631121</v>
+        <v>0.4357834833851371</v>
       </c>
       <c r="K13">
-        <v>0.4955687286359591</v>
+        <v>0.2969937328933128</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1401883280661593</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1046966602705837</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.8136097502901549</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.8248866070535001</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.444878370079607</v>
+        <v>4.413385863634119</v>
       </c>
       <c r="C14">
-        <v>1.53364728904279</v>
+        <v>1.628603508234562</v>
       </c>
       <c r="D14">
-        <v>0.33453860449427</v>
+        <v>0.3330414997574707</v>
       </c>
       <c r="E14">
-        <v>0.1016086367605205</v>
+        <v>0.09508221875583089</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.109283863748402</v>
+        <v>0.8875311856834287</v>
       </c>
       <c r="H14">
-        <v>0.1679987619276346</v>
+        <v>0.1670810103008336</v>
       </c>
       <c r="I14">
-        <v>0.01716610834018795</v>
+        <v>0.01423833051959722</v>
       </c>
       <c r="J14">
-        <v>0.6330832486740405</v>
+        <v>0.4025103346444041</v>
       </c>
       <c r="K14">
-        <v>0.4039493791057964</v>
+        <v>0.250876277899625</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.125583267546677</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.08388391974799347</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.6636736978215652</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.6729634853694577</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.422210090956753</v>
+        <v>4.392110625861221</v>
       </c>
       <c r="C15">
-        <v>1.517083144079095</v>
+        <v>1.609709699238181</v>
       </c>
       <c r="D15">
-        <v>0.3305855713071963</v>
+        <v>0.3291674538714915</v>
       </c>
       <c r="E15">
-        <v>0.110864614562292</v>
+        <v>0.1050183688991666</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.052590141772015</v>
+        <v>0.8410122763921635</v>
       </c>
       <c r="H15">
-        <v>0.1801195280925327</v>
+        <v>0.1792699510523335</v>
       </c>
       <c r="I15">
-        <v>0.01654243409733969</v>
+        <v>0.01385020784406432</v>
       </c>
       <c r="J15">
-        <v>0.6053958656583802</v>
+        <v>0.4005749362607105</v>
       </c>
       <c r="K15">
-        <v>0.3808100557229182</v>
+        <v>0.2409567908405883</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.122794626172638</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.07879156368191076</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.6249554745736603</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.6338857169372005</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.13687790808217</v>
+        <v>4.111743314786906</v>
       </c>
       <c r="C16">
-        <v>1.420456970786972</v>
+        <v>1.520427968143622</v>
       </c>
       <c r="D16">
-        <v>0.3083531776090211</v>
+        <v>0.3072794244702237</v>
       </c>
       <c r="E16">
-        <v>0.1019487198530769</v>
+        <v>0.09765621218513942</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.9986344862609116</v>
+        <v>0.7790241178009865</v>
       </c>
       <c r="H16">
-        <v>0.1657431097890765</v>
+        <v>0.165164504904439</v>
       </c>
       <c r="I16">
-        <v>0.01329403935555096</v>
+        <v>0.0115222783770772</v>
       </c>
       <c r="J16">
-        <v>0.5851787274047382</v>
+        <v>0.4604153521084271</v>
       </c>
       <c r="K16">
-        <v>0.3747000670963061</v>
+        <v>0.2547960841733676</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1309415031125987</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.07883724205987619</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.5902272379512397</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.6001536142549853</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.904493641903912</v>
+        <v>3.881300734076831</v>
       </c>
       <c r="C17">
-        <v>1.363475872146807</v>
+        <v>1.473581170751345</v>
       </c>
       <c r="D17">
-        <v>0.2949230121072901</v>
+        <v>0.2940079333584293</v>
       </c>
       <c r="E17">
-        <v>0.07768921408421114</v>
+        <v>0.07327114998958884</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.062703604414409</v>
+        <v>0.8157443416419881</v>
       </c>
       <c r="H17">
-        <v>0.1272336768803513</v>
+        <v>0.1267660936312325</v>
       </c>
       <c r="I17">
-        <v>0.01167531725721016</v>
+        <v>0.01032743543314574</v>
       </c>
       <c r="J17">
-        <v>0.6224905018335249</v>
+        <v>0.5206286099715811</v>
       </c>
       <c r="K17">
-        <v>0.4164526036742799</v>
+        <v>0.2891109611469282</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1453601008819732</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.08900952349646118</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.6400273372911371</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.6516934435637651</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.694391360769657</v>
+        <v>3.670787680685521</v>
       </c>
       <c r="C18">
-        <v>1.33099286833459</v>
+        <v>1.458288322218664</v>
       </c>
       <c r="D18">
-        <v>0.2874058784742033</v>
+        <v>0.2865343781423775</v>
       </c>
       <c r="E18">
-        <v>0.06825649976133819</v>
+        <v>0.06197448696598951</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.252433362809427</v>
+        <v>0.9472739564939587</v>
       </c>
       <c r="H18">
-        <v>0.07447812721861169</v>
+        <v>0.07401526247600287</v>
       </c>
       <c r="I18">
-        <v>0.01090351603651651</v>
+        <v>0.009622963266298967</v>
       </c>
       <c r="J18">
-        <v>0.7217600504772292</v>
+        <v>0.607258587268376</v>
       </c>
       <c r="K18">
-        <v>0.5158273048891289</v>
+        <v>0.3552706066451847</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1707713295729576</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1127358079461054</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.7782061107125315</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.7931285026249597</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.520610408330072</v>
+        <v>3.494796645432245</v>
       </c>
       <c r="C19">
-        <v>1.327310055470832</v>
+        <v>1.476976206140137</v>
       </c>
       <c r="D19">
-        <v>0.2851418696191388</v>
+        <v>0.2842233587483207</v>
       </c>
       <c r="E19">
-        <v>0.1176036377559448</v>
+        <v>0.1076285122205931</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.534145577319492</v>
+        <v>1.144996710521525</v>
       </c>
       <c r="H19">
-        <v>0.03025035334872683</v>
+        <v>0.02968717546335853</v>
       </c>
       <c r="I19">
-        <v>0.01135314337595883</v>
+        <v>0.009970717599451007</v>
       </c>
       <c r="J19">
-        <v>0.8654249100927416</v>
+        <v>0.7144009218794167</v>
       </c>
       <c r="K19">
-        <v>0.6600254610021068</v>
+        <v>0.4459210425224356</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2044103981855336</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1471476301360752</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.995367867192634</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>1.014898832313911</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.452634348907338</v>
+        <v>3.41917583329456</v>
       </c>
       <c r="C20">
-        <v>1.393435561244019</v>
+        <v>1.581141764901929</v>
       </c>
       <c r="D20">
-        <v>0.2977217469514102</v>
+        <v>0.2964858970088642</v>
       </c>
       <c r="E20">
-        <v>0.3236515722376296</v>
+        <v>0.304841215342762</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.091436427172027</v>
+        <v>1.542212580146384</v>
       </c>
       <c r="H20">
-        <v>0.008313500014951014</v>
+        <v>0.007271619491371784</v>
       </c>
       <c r="I20">
-        <v>0.01463219955412942</v>
+        <v>0.01235863417864547</v>
       </c>
       <c r="J20">
-        <v>1.142237703712738</v>
+        <v>0.877545206295224</v>
       </c>
       <c r="K20">
-        <v>0.9389655720774073</v>
+        <v>0.6078186759713802</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2599765627973483</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.214652077636508</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.427716271963661</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.455178024838901</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.877933339707567</v>
+        <v>3.832917762400768</v>
       </c>
       <c r="C21">
-        <v>1.576577224916093</v>
+        <v>1.760886311656122</v>
       </c>
       <c r="D21">
-        <v>0.3383135049938062</v>
+        <v>0.3363186796755997</v>
       </c>
       <c r="E21">
-        <v>0.3888116199245744</v>
+        <v>0.3650370087089598</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.383259934254141</v>
+        <v>1.813508039792424</v>
       </c>
       <c r="H21">
-        <v>0.01328147563797466</v>
+        <v>0.01138498854456629</v>
       </c>
       <c r="I21">
-        <v>0.02189862132810649</v>
+        <v>0.01746707336757769</v>
       </c>
       <c r="J21">
-        <v>1.275844071635873</v>
+        <v>0.7456807323910937</v>
       </c>
       <c r="K21">
-        <v>1.047495999418757</v>
+        <v>0.6156430576144345</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.251034229381446</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.233681334022684</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.645923866042949</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.671379898393269</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.167478517683207</v>
+        <v>4.1143300884832</v>
       </c>
       <c r="C22">
-        <v>1.693308843668262</v>
+        <v>1.871166681492184</v>
       </c>
       <c r="D22">
-        <v>0.3652749835650866</v>
+        <v>0.3627060999552754</v>
       </c>
       <c r="E22">
-        <v>0.419189782902464</v>
+        <v>0.3924575355210749</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.563702838290851</v>
+        <v>1.991927002330698</v>
       </c>
       <c r="H22">
-        <v>0.01693850983496281</v>
+        <v>0.01438246573451007</v>
       </c>
       <c r="I22">
-        <v>0.02713580393530091</v>
+        <v>0.02094100536491528</v>
       </c>
       <c r="J22">
-        <v>1.358017042925468</v>
+        <v>0.6533574232710606</v>
       </c>
       <c r="K22">
-        <v>1.113449030410933</v>
+        <v>0.6151818370925426</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2433459716557707</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.244278336843486</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.769071580825823</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.792232711970726</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.013378209726397</v>
+        <v>3.964474604462225</v>
       </c>
       <c r="C23">
-        <v>1.626908866982603</v>
+        <v>1.812508843498165</v>
       </c>
       <c r="D23">
-        <v>0.3508551988907556</v>
+        <v>0.3486136099077584</v>
       </c>
       <c r="E23">
-        <v>0.4032364304150846</v>
+        <v>0.3779627362156148</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.478655419233235</v>
+        <v>1.896369074843221</v>
       </c>
       <c r="H23">
-        <v>0.01495121002729993</v>
+        <v>0.0127703678137131</v>
       </c>
       <c r="I23">
-        <v>0.0240584940369164</v>
+        <v>0.01878763922978255</v>
       </c>
       <c r="J23">
-        <v>1.319827193785841</v>
+        <v>0.7269377288844794</v>
       </c>
       <c r="K23">
-        <v>1.08527885608693</v>
+        <v>0.6247792425346717</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2506553937728313</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.2424185510321379</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.702660682551823</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.727784715008895</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.432102437253093</v>
+        <v>3.39830685376694</v>
       </c>
       <c r="C24">
-        <v>1.385499330018774</v>
+        <v>1.575793956091502</v>
       </c>
       <c r="D24">
-        <v>0.2971471929379277</v>
+        <v>0.2959037744721087</v>
       </c>
       <c r="E24">
-        <v>0.343335834510853</v>
+        <v>0.3238536329967303</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.143544887430352</v>
+        <v>1.578810167881699</v>
       </c>
       <c r="H24">
-        <v>0.008458332447756289</v>
+        <v>0.007390734074369243</v>
       </c>
       <c r="I24">
-        <v>0.01429833405809333</v>
+        <v>0.01189163325119136</v>
       </c>
       <c r="J24">
-        <v>1.168642317664336</v>
+        <v>0.8981802321505938</v>
       </c>
       <c r="K24">
-        <v>0.9691068595311023</v>
+        <v>0.6275159323576105</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2672816149922852</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.2221390902439069</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.454081022658414</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.482236615146363</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.810437244292473</v>
+        <v>2.790789672252117</v>
       </c>
       <c r="C25">
-        <v>1.131250921839182</v>
+        <v>1.282239222388569</v>
       </c>
       <c r="D25">
-        <v>0.240828837721196</v>
+        <v>0.2402445130826294</v>
       </c>
       <c r="E25">
-        <v>0.280446617162923</v>
+        <v>0.2672426865938959</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.792481246251526</v>
+        <v>1.336526852451186</v>
       </c>
       <c r="H25">
-        <v>0.003402258183331508</v>
+        <v>0.003020406209502946</v>
       </c>
       <c r="I25">
-        <v>0.006668543979876596</v>
+        <v>0.006070490872752465</v>
       </c>
       <c r="J25">
-        <v>1.010877640289465</v>
+        <v>0.819643591518826</v>
       </c>
       <c r="K25">
-        <v>0.8477608431564079</v>
+        <v>0.5774693496072558</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2658613760436879</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.18186575063352</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.189229555909321</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>1.213067606781451</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
